--- a/search_engine/datasheet.xlsx
+++ b/search_engine/datasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/xml-archive/search_engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDC6AA-0836-214A-9CB6-F04F4ED26C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3EA0D-BD4A-914B-8B69-5052AE32C7DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Software</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Experiment</t>
+  </si>
+  <si>
+    <t>Article_Title</t>
   </si>
 </sst>
 </file>
@@ -460,57 +463,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E30A0-E9CA-644B-BABA-D01B4F4D28E8}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="50.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="50.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
@@ -524,65 +528,71 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
